--- a/简历资料/陈某某-项目.xlsx
+++ b/简历资料/陈某某-项目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="25600" windowHeight="10670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>项目名称</t>
   </si>
@@ -30,22 +30,25 @@
     <t>PC还是移动</t>
   </si>
   <si>
-    <t>淘宝</t>
+    <t>一定要分清楚项目是响应式还是双端</t>
   </si>
   <si>
-    <t>taobao.com</t>
+    <t>网易严选</t>
+  </si>
+  <si>
+    <t>http://you.163.com/</t>
   </si>
   <si>
     <t>react</t>
   </si>
   <si>
-    <t>PC</t>
+    <t>双端</t>
+  </si>
+  <si>
+    <t>花开花落</t>
   </si>
   <si>
     <t>小程序</t>
-  </si>
-  <si>
-    <t>花开花落</t>
   </si>
 </sst>
 </file>
@@ -53,12 +56,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +70,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -76,14 +87,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,60 +101,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,59 +213,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -233,6 +229,102 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -245,7 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,25 +349,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,91 +391,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,36 +410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,46 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,21 +457,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -533,159 +479,209 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -699,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,20 +1046,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="4" max="4" width="32.25" customWidth="1"/>
-    <col min="6" max="6" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="28.3727272727273" customWidth="1"/>
+    <col min="4" max="4" width="32.2545454545455" customWidth="1"/>
+    <col min="6" max="6" width="27.3727272727273" customWidth="1"/>
+    <col min="9" max="9" width="37.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:8">
+    <row r="1" ht="45" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,258 +1077,263 @@
         <v>3</v>
       </c>
       <c r="H1" s="1"/>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="45" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" ht="45" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" ht="45" customHeight="1" spans="1:8">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" ht="45" customHeight="1" spans="1:8">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" ht="45" customHeight="1" spans="1:8">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" ht="45" customHeight="1" spans="1:8">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" ht="45" customHeight="1" spans="1:8">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:8">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" ht="45" customHeight="1" spans="1:8">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" ht="45" customHeight="1" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" ht="45" customHeight="1" spans="1:8">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" ht="45" customHeight="1" spans="1:8">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" ht="45" customHeight="1" spans="1:8">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" ht="45" customHeight="1" spans="1:8">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" ht="45" customHeight="1" spans="1:8">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" ht="45" customHeight="1" spans="1:8">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" ht="45" customHeight="1" spans="1:8">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" ht="45" customHeight="1" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" ht="45" customHeight="1" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" ht="45" customHeight="1" spans="1:8">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" ht="45" customHeight="1" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" ht="45" customHeight="1" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" ht="45" customHeight="1" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" ht="45" customHeight="1" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="100">
@@ -1436,6 +1438,9 @@
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="G25:H25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://you.163.com/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1451,7 +1456,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1468,7 +1473,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
